--- a/data/flume_review_data_eta.xlsx
+++ b/data/flume_review_data_eta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samps\OneDrive\Documents\flume_synthesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBA1D24-D6BD-4713-89EC-3A5D8C6FD594}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B311B3A6-26FB-47E5-A376-EA37C5B4EFD1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB8BE3EC-1DA2-42B2-A896-D59BB83C7F7D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="all_data" sheetId="1" r:id="rId1"/>
     <sheet name="Fauria_eta" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="purich" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="163">
   <si>
     <t>Wu_2011</t>
   </si>
@@ -598,15 +599,62 @@
   <si>
     <t>biofilm</t>
   </si>
+  <si>
+    <t>Purich_2006</t>
+  </si>
+  <si>
+    <t># stems</t>
+  </si>
+  <si>
+    <t>Total particles</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Ave # particle per collector</t>
+  </si>
+  <si>
+    <t>total # particles</t>
+  </si>
+  <si>
+    <t>P0 (concentration)</t>
+  </si>
+  <si>
+    <t>U velocity</t>
+  </si>
+  <si>
+    <t>dc diameter</t>
+  </si>
+  <si>
+    <t>lc height</t>
+  </si>
+  <si>
+    <t>t time</t>
+  </si>
+  <si>
+    <t>n %</t>
+  </si>
+  <si>
+    <t>dowels in grease</t>
+  </si>
+  <si>
+    <t>particle_diameter_um</t>
+  </si>
+  <si>
+    <t>pliolite particles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +720,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -863,10 +918,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -989,9 +1045,17 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1303,11 +1367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03361C8-902F-418A-AD03-0DD59E4BF986}">
-  <dimension ref="A1:X106"/>
+  <dimension ref="A1:Y124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U98" sqref="U98"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P107" sqref="P107:P124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,9 +1383,10 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="30"/>
     <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>101</v>
       </c>
@@ -1394,8 +1459,11 @@
       <c r="X1" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -1449,7 +1517,8 @@
         <v>1.05</v>
       </c>
       <c r="R2" s="4">
-        <v>1.05</v>
+        <f>Y2/10000</f>
+        <v>1.05E-4</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -1458,22 +1527,25 @@
         <v>2E-3</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U65" si="1">Q2/E2</f>
-        <v>0.52500000000000002</v>
+        <f>R2/E2</f>
+        <v>5.2500000000000002E-5</v>
       </c>
       <c r="V2" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W43" si="2">E2/100</f>
+        <f t="shared" ref="W2:W43" si="1">E2/100</f>
         <v>0.02</v>
       </c>
       <c r="X2">
         <f>T2/100</f>
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y2" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1500,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I43" si="3">(1/(20*10)*E3)</f>
+        <f t="shared" ref="I3:I43" si="2">(1/(20*10)*E3)</f>
         <v>0.01</v>
       </c>
       <c r="J3" s="30">
@@ -1513,11 +1585,11 @@
         <v>3.3E-3</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N17" si="4">M3*1</f>
+        <f t="shared" ref="N3:N17" si="3">M3*1</f>
         <v>3.3E-3</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O17" si="5">L3</f>
+        <f t="shared" ref="O3:O17" si="4">L3</f>
         <v>3.3*10^-3 ± 2.3*10^-4</v>
       </c>
       <c r="P3" t="s">
@@ -1527,7 +1599,8 @@
         <v>1.05</v>
       </c>
       <c r="R3" s="4">
-        <v>1.05</v>
+        <f t="shared" ref="R3:R66" si="5">Y3/10000</f>
+        <v>1.05E-4</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -1536,22 +1609,25 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="U3">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" ref="U3:U66" si="6">R3/E3</f>
+        <v>5.2500000000000002E-5</v>
       </c>
       <c r="V3" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X66" si="6">T3/100</f>
+        <f t="shared" ref="X3:X66" si="7">T3/100</f>
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y3" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -1578,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="J4" s="30">
@@ -1591,11 +1667,11 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="N4">
+        <f t="shared" si="3"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="O4" t="str">
         <f t="shared" si="4"/>
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="5"/>
         <v>1.7*10^-3 ± 1.0*10^-4</v>
       </c>
       <c r="P4" t="s">
@@ -1605,7 +1681,8 @@
         <v>1.05</v>
       </c>
       <c r="R4" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1614,22 +1691,25 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="U4">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>5.2500000000000002E-5</v>
       </c>
       <c r="V4" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="X4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0000000000000007E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y4" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -1656,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="J5" s="30">
@@ -1669,11 +1749,11 @@
         <v>1.4E-3</v>
       </c>
       <c r="N5">
+        <f t="shared" si="3"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" si="4"/>
-        <v>1.4E-3</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="5"/>
         <v>1.4*10^-3 ± 5.8*10^-5</v>
       </c>
       <c r="P5" t="s">
@@ -1683,7 +1763,8 @@
         <v>1.05</v>
       </c>
       <c r="R5" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1692,22 +1773,25 @@
         <v>0.01</v>
       </c>
       <c r="U5">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>5.2500000000000002E-5</v>
       </c>
       <c r="V5" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="X5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y5" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -1734,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="J6" s="30">
@@ -1747,11 +1831,11 @@
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="N6">
+        <f t="shared" si="3"/>
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="4"/>
-        <v>6.8999999999999997E-4</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="5"/>
         <v>6.9*10^-4 ± 3.0*10^-5</v>
       </c>
       <c r="P6" t="s">
@@ -1761,7 +1845,8 @@
         <v>1.05</v>
       </c>
       <c r="R6" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1770,22 +1855,25 @@
         <v>0.02</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>5.2500000000000002E-5</v>
       </c>
       <c r="V6" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="X6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y6" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -1812,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="J7" s="30">
@@ -1825,11 +1913,11 @@
         <v>3.5E-4</v>
       </c>
       <c r="N7">
+        <f t="shared" si="3"/>
+        <v>3.5E-4</v>
+      </c>
+      <c r="O7" t="str">
         <f t="shared" si="4"/>
-        <v>3.5E-4</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="5"/>
         <v>3.5*10^-4 ± 3.0*10^-5</v>
       </c>
       <c r="P7" t="s">
@@ -1839,7 +1927,8 @@
         <v>1.05</v>
       </c>
       <c r="R7" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1848,22 +1937,25 @@
         <v>0.04</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>5.2500000000000002E-5</v>
       </c>
       <c r="V7" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="X7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y7" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -1890,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="J8" s="30">
@@ -1903,11 +1995,11 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="N8">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="O8" t="str">
         <f t="shared" si="4"/>
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="5"/>
         <v>1.8*10^-4 ± 9.7*10^-6</v>
       </c>
       <c r="P8" t="s">
@@ -1917,7 +2009,8 @@
         <v>1.05</v>
       </c>
       <c r="R8" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1926,22 +2019,25 @@
         <v>0.08</v>
       </c>
       <c r="U8">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>5.2500000000000002E-5</v>
       </c>
       <c r="V8" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="X8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0000000000000004E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y8" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -1968,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="J9" s="30">
@@ -1981,11 +2077,11 @@
         <v>1.3999999999999999E-4</v>
       </c>
       <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="4"/>
-        <v>1.3999999999999999E-4</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="5"/>
         <v>1.4*10^-4 ± 6.0*10^-6</v>
       </c>
       <c r="P9" t="s">
@@ -1995,7 +2091,8 @@
         <v>1.05</v>
       </c>
       <c r="R9" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -2004,22 +2101,25 @@
         <v>0.1</v>
       </c>
       <c r="U9">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>5.2500000000000002E-5</v>
       </c>
       <c r="V9" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="X9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y9" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -2046,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="J10" s="30">
@@ -2059,11 +2159,11 @@
         <v>7.2999999999999999E-5</v>
       </c>
       <c r="N10">
+        <f t="shared" si="3"/>
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="4"/>
-        <v>7.2999999999999999E-5</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="5"/>
         <v>7.3*10^-5 ± 1.8*10^-6</v>
       </c>
       <c r="P10" t="s">
@@ -2073,7 +2173,8 @@
         <v>1.05</v>
       </c>
       <c r="R10" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -2082,22 +2183,25 @@
         <v>0.2</v>
       </c>
       <c r="U10">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>5.2500000000000002E-5</v>
       </c>
       <c r="V10" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="X10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y10" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -2124,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="J11" s="30">
@@ -2137,11 +2241,11 @@
         <v>8.1999999999999998E-4</v>
       </c>
       <c r="N11">
+        <f t="shared" si="3"/>
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="O11" t="str">
         <f t="shared" si="4"/>
-        <v>8.1999999999999998E-4</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="5"/>
         <v>8.2*10^-4 ± 5.5*10^-5</v>
       </c>
       <c r="P11" t="s">
@@ -2151,7 +2255,8 @@
         <v>1.05</v>
       </c>
       <c r="R11" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -2160,22 +2265,25 @@
         <v>0.02</v>
       </c>
       <c r="U11">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="V11" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="X11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y11" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -2202,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J12" s="30">
@@ -2215,11 +2323,11 @@
         <v>1.5E-3</v>
       </c>
       <c r="N12">
+        <f t="shared" si="3"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="O12" t="str">
         <f t="shared" si="4"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="5"/>
         <v>1.5*10^-3 ± 8.5*10^-5</v>
       </c>
       <c r="P12" t="s">
@@ -2229,7 +2337,8 @@
         <v>1.05</v>
       </c>
       <c r="R12" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -2238,22 +2347,25 @@
         <v>0.02</v>
       </c>
       <c r="U12">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
+        <f t="shared" si="6"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="V12" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="X12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y12" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -2280,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J13" s="30">
@@ -2293,11 +2405,11 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="N13">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="O13" t="str">
         <f t="shared" si="4"/>
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="5"/>
         <v>1.1*10^-3 ± 4.6*10^-5</v>
       </c>
       <c r="P13" t="s">
@@ -2307,7 +2419,8 @@
         <v>1.05</v>
       </c>
       <c r="R13" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -2316,22 +2429,25 @@
         <v>0.02</v>
       </c>
       <c r="U13">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
+        <f t="shared" si="6"/>
+        <v>1.05E-4</v>
       </c>
       <c r="V13" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="X13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y13" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -2358,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="J14" s="30">
@@ -2371,11 +2487,11 @@
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="N14">
+        <f t="shared" si="3"/>
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v>7.3999999999999999E-4</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="5"/>
         <v>7.4*10^-4 ± 5.7*10^-5</v>
       </c>
       <c r="P14" t="s">
@@ -2385,7 +2501,8 @@
         <v>1.05</v>
       </c>
       <c r="R14" s="4">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -2394,100 +2511,107 @@
         <v>0.02</v>
       </c>
       <c r="U14">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>1E-4</v>
       </c>
       <c r="V14" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W14">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="41">
+        <v>2.0421291238245001</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J15" s="30">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="4"/>
+        <v>1.2*10^-3 ± 6.9*10^-5</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>1.05</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
         <v>0.02</v>
       </c>
-      <c r="X14">
+      <c r="U15">
         <f t="shared" si="6"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="41">
-        <v>2.0421291238245001</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J15" s="30">
-        <v>1</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="5"/>
-        <v>1.2*10^-3 ± 6.9*10^-5</v>
-      </c>
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <v>1.05</v>
-      </c>
-      <c r="R15" s="4">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
       <c r="V15" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="X15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -2514,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="J16" s="30">
@@ -2527,11 +2651,11 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="N16">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="O16" t="str">
         <f t="shared" si="4"/>
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="5"/>
         <v>1.1*10^-3 ± 1.1*10^-5</v>
       </c>
       <c r="P16" t="s">
@@ -2541,7 +2665,8 @@
         <v>1.05</v>
       </c>
       <c r="R16" s="4">
-        <v>10.5</v>
+        <f t="shared" si="5"/>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -2550,22 +2675,25 @@
         <v>0.02</v>
       </c>
       <c r="U16">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>5.2499999999999997E-4</v>
       </c>
       <c r="V16" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="X16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y16" s="4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -2592,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J17" s="30">
@@ -2605,11 +2733,11 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="N17">
+        <f t="shared" si="3"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="O17" t="str">
         <f t="shared" si="4"/>
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="5"/>
         <v>2.1*10^-3 ± 3.8*10^-5</v>
       </c>
       <c r="P17" t="s">
@@ -2619,7 +2747,8 @@
         <v>1.05</v>
       </c>
       <c r="R17" s="4">
-        <v>10.5</v>
+        <f t="shared" si="5"/>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -2628,22 +2757,25 @@
         <v>0.02</v>
       </c>
       <c r="U17">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
+        <f t="shared" si="6"/>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="V17" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="X17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y17" s="4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -2667,7 +2799,7 @@
         <v>0.5</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J18" s="30">
@@ -2680,7 +2812,8 @@
         <v>1.05</v>
       </c>
       <c r="R18" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -2689,22 +2822,25 @@
         <v>0.02</v>
       </c>
       <c r="U18">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V18" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y18" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -2728,7 +2864,7 @@
         <v>0.5</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J19" s="30">
@@ -2741,7 +2877,8 @@
         <v>1.05</v>
       </c>
       <c r="R19" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -2750,22 +2887,25 @@
         <v>0.02</v>
       </c>
       <c r="U19">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V19" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y19" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -2789,7 +2929,7 @@
         <v>0.5</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J20" s="30">
@@ -2802,7 +2942,8 @@
         <v>1.05</v>
       </c>
       <c r="R20" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -2811,22 +2952,25 @@
         <v>0.02</v>
       </c>
       <c r="U20">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V20" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y20" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -2850,7 +2994,7 @@
         <v>0.5</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J21" s="30">
@@ -2863,7 +3007,8 @@
         <v>1.05</v>
       </c>
       <c r="R21" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2872,22 +3017,25 @@
         <v>0.02</v>
       </c>
       <c r="U21">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V21" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y21" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -2911,7 +3059,7 @@
         <v>0.5</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J22" s="30">
@@ -2924,7 +3072,8 @@
         <v>1.05</v>
       </c>
       <c r="R22" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2933,22 +3082,25 @@
         <v>0.02</v>
       </c>
       <c r="U22">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V22" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y22" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -2972,7 +3124,7 @@
         <v>0.5</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J23" s="30">
@@ -2985,7 +3137,8 @@
         <v>1.05</v>
       </c>
       <c r="R23" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -2994,22 +3147,25 @@
         <v>0.02</v>
       </c>
       <c r="U23">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V23" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y23" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3033,7 +3189,7 @@
         <v>0.5</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J24" s="30">
@@ -3046,7 +3202,8 @@
         <v>1.05</v>
       </c>
       <c r="R24" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -3055,22 +3212,25 @@
         <v>0.02</v>
       </c>
       <c r="U24">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V24" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y24" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3094,7 +3254,7 @@
         <v>0.5</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J25" s="30">
@@ -3107,7 +3267,8 @@
         <v>1.05</v>
       </c>
       <c r="R25" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -3116,22 +3277,25 @@
         <v>0.02</v>
       </c>
       <c r="U25">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V25" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y25" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3155,7 +3319,7 @@
         <v>0.5</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J26" s="30">
@@ -3168,7 +3332,8 @@
         <v>1.05</v>
       </c>
       <c r="R26" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -3177,22 +3342,25 @@
         <v>0.02</v>
       </c>
       <c r="U26">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V26" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y26" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3216,7 +3384,7 @@
         <v>0.5</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J27" s="30">
@@ -3229,7 +3397,8 @@
         <v>1.05</v>
       </c>
       <c r="R27" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -3238,22 +3407,25 @@
         <v>0.02</v>
       </c>
       <c r="U27">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V27" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y27" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -3277,7 +3449,7 @@
         <v>0.5</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J28" s="30">
@@ -3290,7 +3462,8 @@
         <v>1.05</v>
       </c>
       <c r="R28" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -3299,22 +3472,25 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="U28">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V28" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y28" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -3338,7 +3514,7 @@
         <v>0.5</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J29" s="30">
@@ -3351,7 +3527,8 @@
         <v>1.05</v>
       </c>
       <c r="R29" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -3360,22 +3537,25 @@
         <v>2E-3</v>
       </c>
       <c r="U29">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V29" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y29" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -3399,7 +3579,7 @@
         <v>0.5</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J30" s="30">
@@ -3412,7 +3592,8 @@
         <v>1.05</v>
       </c>
       <c r="R30" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -3421,22 +3602,25 @@
         <v>0.2</v>
       </c>
       <c r="U30">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V30" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y30" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -3460,7 +3644,7 @@
         <v>0.5</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J31" s="30">
@@ -3473,7 +3657,8 @@
         <v>1.05</v>
       </c>
       <c r="R31" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -3482,22 +3667,25 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V31" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y31" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -3521,7 +3709,7 @@
         <v>0.5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J32" s="30">
@@ -3534,7 +3722,8 @@
         <v>1.05</v>
       </c>
       <c r="R32" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -3543,22 +3732,25 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="U32">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V32" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y32" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -3582,7 +3774,7 @@
         <v>0.5</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J33" s="30">
@@ -3595,7 +3787,8 @@
         <v>1.05</v>
       </c>
       <c r="R33" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -3604,22 +3797,25 @@
         <v>2E-3</v>
       </c>
       <c r="U33">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V33" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y33" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -3643,7 +3839,7 @@
         <v>0.5</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J34" s="30">
@@ -3656,7 +3852,8 @@
         <v>1.05</v>
       </c>
       <c r="R34" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -3665,22 +3862,25 @@
         <v>0.2</v>
       </c>
       <c r="U34">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V34" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y34" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -3704,7 +3904,7 @@
         <v>0.5</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J35" s="30">
@@ -3717,7 +3917,8 @@
         <v>1.05</v>
       </c>
       <c r="R35" s="4">
-        <v>1.05</v>
+        <f t="shared" si="5"/>
+        <v>1.05E-4</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -3726,22 +3927,25 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="V35" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y35" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -3765,7 +3969,7 @@
         <v>0.5</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J36" s="30">
@@ -3778,7 +3982,8 @@
         <v>1.05</v>
       </c>
       <c r="R36" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -3787,22 +3992,25 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="U36">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V36" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y36" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -3826,7 +4034,7 @@
         <v>0.5</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J37" s="30">
@@ -3839,7 +4047,8 @@
         <v>1.05</v>
       </c>
       <c r="R37" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -3848,22 +4057,25 @@
         <v>2E-3</v>
       </c>
       <c r="U37">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V37" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y37" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>140</v>
       </c>
@@ -3887,7 +4099,7 @@
         <v>0.5</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J38" s="30">
@@ -3900,7 +4112,8 @@
         <v>1.05</v>
       </c>
       <c r="R38" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -3909,22 +4122,25 @@
         <v>0.2</v>
       </c>
       <c r="U38">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V38" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y38" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -3948,7 +4164,7 @@
         <v>0.5</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J39" s="30">
@@ -3961,7 +4177,8 @@
         <v>1.05</v>
       </c>
       <c r="R39" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -3970,22 +4187,25 @@
         <v>1</v>
       </c>
       <c r="U39">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V39" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y39" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -4009,7 +4229,7 @@
         <v>0.5</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J40" s="30">
@@ -4022,7 +4242,8 @@
         <v>1.05</v>
       </c>
       <c r="R40" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -4031,22 +4252,25 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="U40">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V40" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y40" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -4070,7 +4294,7 @@
         <v>0.5</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J41" s="30">
@@ -4083,7 +4307,8 @@
         <v>1.05</v>
       </c>
       <c r="R41" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -4092,22 +4317,25 @@
         <v>2E-3</v>
       </c>
       <c r="U41">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V41" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y41" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -4131,7 +4359,7 @@
         <v>0.5</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J42" s="30">
@@ -4144,7 +4372,8 @@
         <v>1.05</v>
       </c>
       <c r="R42" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -4153,22 +4382,25 @@
         <v>0.2</v>
       </c>
       <c r="U42">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V42" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y42" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -4192,7 +4424,7 @@
         <v>0.5</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J43" s="30">
@@ -4205,7 +4437,8 @@
         <v>1.05</v>
       </c>
       <c r="R43" s="4">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -4214,22 +4447,25 @@
         <v>1</v>
       </c>
       <c r="U43">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V43" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y43" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -4256,7 +4492,7 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44:I55" si="7">(1/(275*22)*E44)</f>
+        <f t="shared" ref="I44:I55" si="8">(1/(275*22)*E44)</f>
         <v>1.0495867768595043E-4</v>
       </c>
       <c r="J44" s="30">
@@ -4274,8 +4510,9 @@
       <c r="Q44">
         <v>1.03</v>
       </c>
-      <c r="R44" s="8">
-        <v>194</v>
+      <c r="R44" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -4285,22 +4522,25 @@
         <v>1.0487741732283464</v>
       </c>
       <c r="U44">
-        <f t="shared" si="1"/>
-        <v>1.6220472440944882</v>
+        <f t="shared" si="6"/>
+        <v>3.0551181102362206E-2</v>
       </c>
       <c r="V44" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W44">
-        <f t="shared" ref="W44:W95" si="8">E44/100</f>
+        <f t="shared" ref="W44:W95" si="9">E44/100</f>
         <v>6.3499999999999997E-3</v>
       </c>
       <c r="X44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0487741732283465E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y44" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2</v>
       </c>
@@ -4323,11 +4563,11 @@
         <v>6</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:H55" si="9">1*E45</f>
+        <f t="shared" ref="H45:H55" si="10">1*E45</f>
         <v>1.27</v>
       </c>
       <c r="I45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0991735537190085E-4</v>
       </c>
       <c r="J45" s="30">
@@ -4345,33 +4585,37 @@
       <c r="Q45">
         <v>1.03</v>
       </c>
-      <c r="R45" s="8">
-        <v>194</v>
+      <c r="R45" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S45">
         <v>1</v>
       </c>
       <c r="T45">
-        <f t="shared" ref="T45:T55" si="10">((C45*V45)/W45)*100</f>
+        <f t="shared" ref="T45:T55" si="11">((C45*V45)/W45)*100</f>
         <v>1.056485748031496</v>
       </c>
       <c r="U45">
-        <f t="shared" si="1"/>
-        <v>0.8110236220472441</v>
+        <f t="shared" si="6"/>
+        <v>1.5275590551181103E-2</v>
       </c>
       <c r="V45" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="X45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.056485748031496E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y45" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3</v>
       </c>
@@ -4394,11 +4638,11 @@
         <v>6</v>
       </c>
       <c r="H46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.54</v>
       </c>
       <c r="I46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1983471074380171E-4</v>
       </c>
       <c r="J46" s="30">
@@ -4416,33 +4660,37 @@
       <c r="Q46">
         <v>1.03</v>
       </c>
-      <c r="R46" s="8">
-        <v>194</v>
+      <c r="R46" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S46">
         <v>1</v>
       </c>
       <c r="T46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0757646850393698</v>
       </c>
       <c r="U46">
-        <f t="shared" si="1"/>
-        <v>0.40551181102362205</v>
+        <f t="shared" si="6"/>
+        <v>7.6377952755905514E-3</v>
       </c>
       <c r="V46" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="X46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0757646850393699E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y46" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>4</v>
       </c>
@@ -4465,11 +4713,11 @@
         <v>6</v>
       </c>
       <c r="H47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="I47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0495867768595043E-4</v>
       </c>
       <c r="J47" s="30">
@@ -4487,33 +4735,37 @@
       <c r="Q47">
         <v>1.03</v>
       </c>
-      <c r="R47" s="8">
-        <v>194</v>
+      <c r="R47" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S47">
         <v>1</v>
       </c>
       <c r="T47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.58607968503937002</v>
       </c>
       <c r="U47">
-        <f t="shared" si="1"/>
-        <v>1.6220472440944882</v>
+        <f t="shared" si="6"/>
+        <v>3.0551181102362206E-2</v>
       </c>
       <c r="V47" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.3499999999999997E-3</v>
       </c>
       <c r="X47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.8607968503937005E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y47" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5</v>
       </c>
@@ -4536,11 +4788,11 @@
         <v>6</v>
       </c>
       <c r="H48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.27</v>
       </c>
       <c r="I48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0991735537190085E-4</v>
       </c>
       <c r="J48" s="30">
@@ -4558,33 +4810,37 @@
       <c r="Q48">
         <v>1.03</v>
       </c>
-      <c r="R48" s="8">
-        <v>194</v>
+      <c r="R48" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S48">
         <v>1</v>
       </c>
       <c r="T48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.58607968503937002</v>
       </c>
       <c r="U48">
-        <f t="shared" si="1"/>
-        <v>0.8110236220472441</v>
+        <f t="shared" si="6"/>
+        <v>1.5275590551181103E-2</v>
       </c>
       <c r="V48" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="X48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.8607968503937005E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y48" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4607,11 +4863,11 @@
         <v>6</v>
       </c>
       <c r="H49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.54</v>
       </c>
       <c r="I49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1983471074380171E-4</v>
       </c>
       <c r="J49" s="30">
@@ -4629,33 +4885,37 @@
       <c r="Q49">
         <v>1.03</v>
       </c>
-      <c r="R49" s="8">
-        <v>194</v>
+      <c r="R49" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S49">
         <v>1</v>
       </c>
       <c r="T49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.57451232283464571</v>
       </c>
       <c r="U49">
-        <f t="shared" si="1"/>
-        <v>0.40551181102362205</v>
+        <f t="shared" si="6"/>
+        <v>7.6377952755905514E-3</v>
       </c>
       <c r="V49" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="X49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7451232283464567E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y49" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>7</v>
       </c>
@@ -4678,11 +4938,11 @@
         <v>6</v>
       </c>
       <c r="H50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="I50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0495867768595043E-4</v>
       </c>
       <c r="J50" s="30">
@@ -4700,33 +4960,37 @@
       <c r="Q50">
         <v>1.03</v>
       </c>
-      <c r="R50" s="8">
-        <v>194</v>
+      <c r="R50" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7736622047244095</v>
       </c>
       <c r="U50">
-        <f t="shared" si="1"/>
-        <v>1.6220472440944882</v>
+        <f t="shared" si="6"/>
+        <v>3.0551181102362206E-2</v>
       </c>
       <c r="V50" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.3499999999999997E-3</v>
       </c>
       <c r="X50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7736622047244095E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y50" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>8</v>
       </c>
@@ -4749,11 +5013,11 @@
         <v>6</v>
       </c>
       <c r="H51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.27</v>
       </c>
       <c r="I51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0991735537190085E-4</v>
       </c>
       <c r="J51" s="30">
@@ -4771,33 +5035,37 @@
       <c r="Q51">
         <v>1.03</v>
       </c>
-      <c r="R51" s="8">
-        <v>194</v>
+      <c r="R51" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S51">
         <v>1</v>
       </c>
       <c r="T51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8430663779527561</v>
       </c>
       <c r="U51">
-        <f t="shared" si="1"/>
-        <v>0.8110236220472441</v>
+        <f t="shared" si="6"/>
+        <v>1.5275590551181103E-2</v>
       </c>
       <c r="V51" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="X51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.843066377952756E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y51" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>9</v>
       </c>
@@ -4820,11 +5088,11 @@
         <v>6</v>
       </c>
       <c r="H52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.54</v>
       </c>
       <c r="I52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1983471074380171E-4</v>
       </c>
       <c r="J52" s="30">
@@ -4842,33 +5110,37 @@
       <c r="Q52">
         <v>1.03</v>
       </c>
-      <c r="R52" s="8">
-        <v>194</v>
+      <c r="R52" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S52">
         <v>1</v>
       </c>
       <c r="T52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8739126771653543</v>
       </c>
       <c r="U52">
-        <f t="shared" si="1"/>
-        <v>0.40551181102362205</v>
+        <f t="shared" si="6"/>
+        <v>7.6377952755905514E-3</v>
       </c>
       <c r="V52" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="X52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8739126771653541E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y52" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>10</v>
       </c>
@@ -4891,11 +5163,11 @@
         <v>7</v>
       </c>
       <c r="H53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.27</v>
       </c>
       <c r="I53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0991735537190085E-4</v>
       </c>
       <c r="J53" s="30">
@@ -4913,33 +5185,37 @@
       <c r="Q53">
         <v>1.03</v>
       </c>
-      <c r="R53" s="8">
-        <v>194</v>
+      <c r="R53" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7967969291338581</v>
       </c>
       <c r="U53">
-        <f t="shared" si="1"/>
-        <v>0.8110236220472441</v>
+        <f t="shared" si="6"/>
+        <v>1.5275590551181103E-2</v>
       </c>
       <c r="V53" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="X53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7967969291338582E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y53" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>11</v>
       </c>
@@ -4962,11 +5238,11 @@
         <v>8</v>
       </c>
       <c r="H54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.27</v>
       </c>
       <c r="I54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0991735537190085E-4</v>
       </c>
       <c r="J54" s="30">
@@ -4984,33 +5260,37 @@
       <c r="Q54">
         <v>1.03</v>
       </c>
-      <c r="R54" s="8">
-        <v>194</v>
+      <c r="R54" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8430663779527561</v>
       </c>
       <c r="U54">
-        <f t="shared" si="1"/>
-        <v>0.8110236220472441</v>
+        <f t="shared" si="6"/>
+        <v>1.5275590551181103E-2</v>
       </c>
       <c r="V54" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="X54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.843066377952756E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y54" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>12</v>
       </c>
@@ -5033,11 +5313,11 @@
         <v>7</v>
       </c>
       <c r="H55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.27</v>
       </c>
       <c r="I55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0991735537190085E-4</v>
       </c>
       <c r="J55" s="30">
@@ -5055,33 +5335,37 @@
       <c r="Q55">
         <v>1.03</v>
       </c>
-      <c r="R55" s="8">
-        <v>194</v>
+      <c r="R55" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0025047244094487</v>
       </c>
       <c r="U55">
-        <f t="shared" si="1"/>
-        <v>0.8110236220472441</v>
+        <f t="shared" si="6"/>
+        <v>1.5275590551181103E-2</v>
       </c>
       <c r="V55" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="X55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0025047244094486E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y55" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>39</v>
       </c>
@@ -5109,7 +5393,7 @@
         <v>2162.6999999999998</v>
       </c>
       <c r="I56">
-        <f t="shared" ref="I56:I67" si="11">(7209/(790*50)*E56)</f>
+        <f t="shared" ref="I56:I67" si="12">(7209/(790*50)*E56)</f>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J56" s="31">
@@ -5119,8 +5403,9 @@
       <c r="Q56">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R56" s="8">
-        <v>11</v>
+      <c r="R56" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S56" s="11">
         <v>7209</v>
@@ -5129,22 +5414,25 @@
         <v>6</v>
       </c>
       <c r="U56">
-        <f t="shared" si="1"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V56" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y56" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>41</v>
       </c>
@@ -5167,11 +5455,11 @@
         <v>40</v>
       </c>
       <c r="H57">
-        <f t="shared" ref="H57:H95" si="12">S57*E57</f>
+        <f t="shared" ref="H57:H95" si="13">S57*E57</f>
         <v>2162.6999999999998</v>
       </c>
       <c r="I57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J57" s="32" t="s">
@@ -5180,8 +5468,9 @@
       <c r="Q57">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R57" s="8">
-        <v>11</v>
+      <c r="R57" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S57" s="11">
         <v>7209</v>
@@ -5190,22 +5479,25 @@
         <v>42</v>
       </c>
       <c r="U57">
-        <f t="shared" si="1"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V57" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X57" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y57" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
         <v>43</v>
       </c>
@@ -5213,7 +5505,7 @@
         <v>38</v>
       </c>
       <c r="C58" s="41">
-        <f t="shared" ref="C57:C95" si="13">(W58*X58)/V58</f>
+        <f t="shared" ref="C58:C95" si="14">(W58*X58)/V58</f>
         <v>183.79162114420495</v>
       </c>
       <c r="D58" s="29" t="s">
@@ -5229,11 +5521,11 @@
         <v>40</v>
       </c>
       <c r="H58">
+        <f t="shared" si="13"/>
+        <v>2162.6999999999998</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="12"/>
-        <v>2162.6999999999998</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="11"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J58" s="32">
@@ -5242,8 +5534,9 @@
       <c r="Q58">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R58" s="8">
-        <v>11</v>
+      <c r="R58" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S58" s="11">
         <v>7209</v>
@@ -5252,22 +5545,25 @@
         <v>6</v>
       </c>
       <c r="U58">
-        <f t="shared" si="1"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V58" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y58" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
         <v>44</v>
       </c>
@@ -5275,7 +5571,7 @@
         <v>38</v>
       </c>
       <c r="C59" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55.137486343261493</v>
       </c>
       <c r="D59" s="29" t="s">
@@ -5291,11 +5587,11 @@
         <v>45</v>
       </c>
       <c r="H59">
+        <f t="shared" si="13"/>
+        <v>2162.6999999999998</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="12"/>
-        <v>2162.6999999999998</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="11"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J59" s="32">
@@ -5307,8 +5603,9 @@
       <c r="Q59">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R59" s="8">
-        <v>11</v>
+      <c r="R59" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S59" s="11">
         <v>7209</v>
@@ -5317,22 +5614,25 @@
         <v>1.8</v>
       </c>
       <c r="U59">
-        <f t="shared" si="1"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V59" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y59" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
         <v>46</v>
       </c>
@@ -5340,7 +5640,7 @@
         <v>38</v>
       </c>
       <c r="C60" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55.137486343261493</v>
       </c>
       <c r="D60" s="29" t="s">
@@ -5356,11 +5656,11 @@
         <v>45</v>
       </c>
       <c r="H60">
+        <f t="shared" si="13"/>
+        <v>2162.6999999999998</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="12"/>
-        <v>2162.6999999999998</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="11"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J60" s="32">
@@ -5372,8 +5672,9 @@
       <c r="Q60">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R60" s="8">
-        <v>11</v>
+      <c r="R60" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S60" s="11">
         <v>7209</v>
@@ -5382,22 +5683,25 @@
         <v>1.8</v>
       </c>
       <c r="U60">
-        <f t="shared" si="1"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V60" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y60" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>47</v>
       </c>
@@ -5405,7 +5709,7 @@
         <v>38</v>
       </c>
       <c r="C61" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55.137486343261493</v>
       </c>
       <c r="D61" s="29" t="s">
@@ -5421,11 +5725,11 @@
         <v>45</v>
       </c>
       <c r="H61">
+        <f t="shared" si="13"/>
+        <v>2162.6999999999998</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="12"/>
-        <v>2162.6999999999998</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="11"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J61" s="32">
@@ -5434,8 +5738,9 @@
       <c r="Q61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R61" s="8">
-        <v>11</v>
+      <c r="R61" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S61" s="11">
         <v>7209</v>
@@ -5444,22 +5749,25 @@
         <v>1.8</v>
       </c>
       <c r="U61">
-        <f t="shared" si="1"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V61" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y61" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>48</v>
       </c>
@@ -5467,7 +5775,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>134.78052217241699</v>
       </c>
       <c r="D62" s="29" t="s">
@@ -5483,11 +5791,11 @@
         <v>45</v>
       </c>
       <c r="H62">
+        <f t="shared" si="13"/>
+        <v>2162.6999999999998</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="12"/>
-        <v>2162.6999999999998</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="11"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J62" s="32">
@@ -5499,8 +5807,9 @@
       <c r="Q62">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R62" s="8">
-        <v>11</v>
+      <c r="R62" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S62" s="11">
         <v>7209</v>
@@ -5509,22 +5818,25 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="U62">
-        <f t="shared" si="1"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V62" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4000000000000004E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y62" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>49</v>
       </c>
@@ -5532,7 +5844,7 @@
         <v>38</v>
       </c>
       <c r="C63" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>134.78052217241699</v>
       </c>
       <c r="D63" s="29" t="s">
@@ -5548,11 +5860,11 @@
         <v>45</v>
       </c>
       <c r="H63">
+        <f t="shared" si="13"/>
+        <v>2162.6999999999998</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="12"/>
-        <v>2162.6999999999998</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="11"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J63" s="32">
@@ -5564,8 +5876,9 @@
       <c r="Q63">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R63" s="8">
-        <v>11</v>
+      <c r="R63" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S63" s="11">
         <v>7209</v>
@@ -5574,22 +5887,25 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="U63">
-        <f t="shared" si="1"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V63" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4000000000000004E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y63" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>50</v>
       </c>
@@ -5597,7 +5913,7 @@
         <v>38</v>
       </c>
       <c r="C64" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>134.78052217241699</v>
       </c>
       <c r="D64" s="29" t="s">
@@ -5613,11 +5929,11 @@
         <v>45</v>
       </c>
       <c r="H64">
+        <f t="shared" si="13"/>
+        <v>2162.6999999999998</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="12"/>
-        <v>2162.6999999999998</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="11"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J64" s="32">
@@ -5626,8 +5942,9 @@
       <c r="Q64">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R64" s="8">
-        <v>11</v>
+      <c r="R64" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S64" s="11">
         <v>7209</v>
@@ -5636,22 +5953,25 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="U64">
-        <f t="shared" si="1"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V64" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4000000000000004E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y64" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
         <v>51</v>
       </c>
@@ -5659,7 +5979,7 @@
         <v>38</v>
       </c>
       <c r="C65" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>180.72842745846825</v>
       </c>
       <c r="D65" s="29" t="s">
@@ -5675,11 +5995,11 @@
         <v>45</v>
       </c>
       <c r="H65">
+        <f t="shared" si="13"/>
+        <v>2162.6999999999998</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="12"/>
-        <v>2162.6999999999998</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="11"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J65" s="32">
@@ -5691,8 +6011,9 @@
       <c r="Q65">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R65" s="8">
-        <v>11</v>
+      <c r="R65" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S65" s="11">
         <v>7209</v>
@@ -5701,22 +6022,25 @@
         <v>5.9</v>
       </c>
       <c r="U65">
-        <f t="shared" si="1"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V65" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.9000000000000004E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y65" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
         <v>52</v>
       </c>
@@ -5724,7 +6048,7 @@
         <v>38</v>
       </c>
       <c r="C66" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>180.72842745846825</v>
       </c>
       <c r="D66" s="29" t="s">
@@ -5740,11 +6064,11 @@
         <v>45</v>
       </c>
       <c r="H66">
+        <f t="shared" si="13"/>
+        <v>2162.6999999999998</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="12"/>
-        <v>2162.6999999999998</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="11"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J66" s="32">
@@ -5756,8 +6080,9 @@
       <c r="Q66">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R66" s="8">
-        <v>11</v>
+      <c r="R66" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S66" s="11">
         <v>7209</v>
@@ -5766,22 +6091,25 @@
         <v>5.9</v>
       </c>
       <c r="U66">
-        <f t="shared" ref="U66:U95" si="14">Q66/E66</f>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="6"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V66" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.9000000000000004E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y66" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
         <v>53</v>
       </c>
@@ -5789,7 +6117,7 @@
         <v>38</v>
       </c>
       <c r="C67" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>180.72842745846825</v>
       </c>
       <c r="D67" s="29" t="s">
@@ -5805,11 +6133,11 @@
         <v>45</v>
       </c>
       <c r="H67">
+        <f t="shared" si="13"/>
+        <v>2162.6999999999998</v>
+      </c>
+      <c r="I67">
         <f t="shared" si="12"/>
-        <v>2162.6999999999998</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="11"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J67" s="32">
@@ -5818,8 +6146,9 @@
       <c r="Q67">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R67" s="8">
-        <v>11</v>
+      <c r="R67" s="4">
+        <f t="shared" ref="R67:R124" si="15">Y67/10000</f>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S67" s="11">
         <v>7209</v>
@@ -5828,22 +6157,25 @@
         <v>5.9</v>
       </c>
       <c r="U67">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" ref="U67:U124" si="16">R67/E67</f>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V67" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X95" si="15">T67/100</f>
+        <f t="shared" ref="X67:X95" si="17">T67/100</f>
         <v>5.9000000000000004E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y67" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
         <v>54</v>
       </c>
@@ -5851,7 +6183,7 @@
         <v>38</v>
       </c>
       <c r="C68" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.200680028998242</v>
       </c>
       <c r="D68" s="29" t="s">
@@ -5867,7 +6199,7 @@
         <v>55</v>
       </c>
       <c r="H68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I68">
@@ -5880,8 +6212,9 @@
       <c r="Q68">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R68" s="8">
-        <v>11</v>
+      <c r="R68" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S68" s="9">
         <v>0</v>
@@ -5890,22 +6223,25 @@
         <v>1.9</v>
       </c>
       <c r="U68">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V68" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y68" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
         <v>56</v>
       </c>
@@ -5913,7 +6249,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.200680028998242</v>
       </c>
       <c r="D69" s="29" t="s">
@@ -5929,11 +6265,11 @@
         <v>55</v>
       </c>
       <c r="H69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I69">
-        <f t="shared" ref="I69:I73" si="16">(0/(790*50)*E69)</f>
+        <f t="shared" ref="I69:I73" si="18">(0/(790*50)*E69)</f>
         <v>0</v>
       </c>
       <c r="J69" s="32">
@@ -5942,8 +6278,9 @@
       <c r="Q69">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R69" s="8">
-        <v>11</v>
+      <c r="R69" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S69" s="9">
         <v>0</v>
@@ -5952,22 +6289,25 @@
         <v>1.9</v>
       </c>
       <c r="U69">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V69" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y69" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
         <v>57</v>
       </c>
@@ -5975,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="C70" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>143.97010322962723</v>
       </c>
       <c r="D70" s="29" t="s">
@@ -5991,11 +6331,11 @@
         <v>55</v>
       </c>
       <c r="H70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J70" s="32">
@@ -6004,8 +6344,9 @@
       <c r="Q70">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R70" s="8">
-        <v>11</v>
+      <c r="R70" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S70" s="9">
         <v>0</v>
@@ -6014,22 +6355,25 @@
         <v>4.7</v>
       </c>
       <c r="U70">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V70" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y70" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
         <v>58</v>
       </c>
@@ -6037,7 +6381,7 @@
         <v>38</v>
       </c>
       <c r="C71" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>143.97010322962723</v>
       </c>
       <c r="D71" s="29" t="s">
@@ -6053,11 +6397,11 @@
         <v>55</v>
       </c>
       <c r="H71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J71" s="32">
@@ -6066,8 +6410,9 @@
       <c r="Q71">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R71" s="8">
-        <v>11</v>
+      <c r="R71" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S71" s="9">
         <v>0</v>
@@ -6076,22 +6421,25 @@
         <v>4.7</v>
       </c>
       <c r="U71">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V71" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y71" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
         <v>59</v>
       </c>
@@ -6099,7 +6447,7 @@
         <v>38</v>
       </c>
       <c r="C72" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>189.91800851567845</v>
       </c>
       <c r="D72" s="29" t="s">
@@ -6115,11 +6463,11 @@
         <v>55</v>
       </c>
       <c r="H72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J72" s="32">
@@ -6128,8 +6476,9 @@
       <c r="Q72">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R72" s="8">
-        <v>11</v>
+      <c r="R72" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S72" s="9">
         <v>0</v>
@@ -6138,22 +6487,25 @@
         <v>6.2</v>
       </c>
       <c r="U72">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V72" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y72" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
         <v>60</v>
       </c>
@@ -6161,7 +6513,7 @@
         <v>38</v>
       </c>
       <c r="C73" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>189.91800851567845</v>
       </c>
       <c r="D73" s="29" t="s">
@@ -6177,11 +6529,11 @@
         <v>55</v>
       </c>
       <c r="H73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J73" s="32">
@@ -6190,8 +6542,9 @@
       <c r="Q73">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R73" s="8">
-        <v>11</v>
+      <c r="R73" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S73" s="9">
         <v>0</v>
@@ -6200,22 +6553,25 @@
         <v>6.2</v>
       </c>
       <c r="U73">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V73" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y73" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
         <v>61</v>
       </c>
@@ -6223,7 +6579,7 @@
         <v>38</v>
       </c>
       <c r="C74" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55.137486343261493</v>
       </c>
       <c r="D74" s="29" t="s">
@@ -6239,11 +6595,11 @@
         <v>40</v>
       </c>
       <c r="H74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I74">
-        <f t="shared" ref="I74:I85" si="17">(7209/(790*50)*E74)</f>
+        <f t="shared" ref="I74:I85" si="19">(7209/(790*50)*E74)</f>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J74" s="32">
@@ -6252,8 +6608,9 @@
       <c r="Q74">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R74" s="8">
-        <v>11</v>
+      <c r="R74" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S74" s="9">
         <v>7209</v>
@@ -6262,22 +6619,25 @@
         <v>1.8</v>
       </c>
       <c r="U74">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V74" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y74" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
         <v>62</v>
       </c>
@@ -6285,7 +6645,7 @@
         <v>38</v>
       </c>
       <c r="C75" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55.137486343261493</v>
       </c>
       <c r="D75" s="29" t="s">
@@ -6301,11 +6661,11 @@
         <v>40</v>
       </c>
       <c r="H75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J75" s="32">
@@ -6314,8 +6674,9 @@
       <c r="Q75">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R75" s="8">
-        <v>11</v>
+      <c r="R75" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S75" s="9">
         <v>7209</v>
@@ -6324,22 +6685,25 @@
         <v>1.8</v>
       </c>
       <c r="U75">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V75" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y75" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
         <v>63</v>
       </c>
@@ -6347,7 +6711,7 @@
         <v>38</v>
       </c>
       <c r="C76" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>140.90690954389046</v>
       </c>
       <c r="D76" s="29" t="s">
@@ -6363,11 +6727,11 @@
         <v>40</v>
       </c>
       <c r="H76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J76" s="32">
@@ -6376,8 +6740,9 @@
       <c r="Q76">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R76" s="8">
-        <v>11</v>
+      <c r="R76" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S76" s="9">
         <v>7209</v>
@@ -6386,22 +6751,25 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="U76">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V76" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y76" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="s">
         <v>64</v>
       </c>
@@ -6409,7 +6777,7 @@
         <v>38</v>
       </c>
       <c r="C77" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>140.90690954389046</v>
       </c>
       <c r="D77" s="29" t="s">
@@ -6425,11 +6793,11 @@
         <v>40</v>
       </c>
       <c r="H77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J77" s="32">
@@ -6438,8 +6806,9 @@
       <c r="Q77">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R77" s="8">
-        <v>11</v>
+      <c r="R77" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S77" s="9">
         <v>7209</v>
@@ -6448,22 +6817,25 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="U77">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V77" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y77" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="s">
         <v>65</v>
       </c>
@@ -6471,7 +6843,7 @@
         <v>38</v>
       </c>
       <c r="C78" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>183.79162114420495</v>
       </c>
       <c r="D78" s="29" t="s">
@@ -6487,11 +6859,11 @@
         <v>40</v>
       </c>
       <c r="H78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J78" s="32">
@@ -6500,8 +6872,9 @@
       <c r="Q78">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R78" s="8">
-        <v>11</v>
+      <c r="R78" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S78" s="9">
         <v>7209</v>
@@ -6510,22 +6883,25 @@
         <v>6</v>
       </c>
       <c r="U78">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V78" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y78" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
         <v>66</v>
       </c>
@@ -6533,7 +6909,7 @@
         <v>38</v>
       </c>
       <c r="C79" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>183.79162114420495</v>
       </c>
       <c r="D79" s="29" t="s">
@@ -6549,11 +6925,11 @@
         <v>40</v>
       </c>
       <c r="H79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J79" s="32">
@@ -6562,8 +6938,9 @@
       <c r="Q79">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R79" s="8">
-        <v>11</v>
+      <c r="R79" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S79" s="9">
         <v>7209</v>
@@ -6572,22 +6949,25 @@
         <v>6</v>
       </c>
       <c r="U79">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V79" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y79" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
         <v>67</v>
       </c>
@@ -6595,7 +6975,7 @@
         <v>38</v>
       </c>
       <c r="C80" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.200680028998242</v>
       </c>
       <c r="D80" s="29" t="s">
@@ -6611,11 +6991,11 @@
         <v>45</v>
       </c>
       <c r="H80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J80" s="32">
@@ -6627,8 +7007,9 @@
       <c r="Q80">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R80" s="8">
-        <v>11</v>
+      <c r="R80" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S80" s="9">
         <v>7209</v>
@@ -6637,22 +7018,25 @@
         <v>1.9</v>
       </c>
       <c r="U80">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V80" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y80" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
         <v>68</v>
       </c>
@@ -6660,7 +7044,7 @@
         <v>38</v>
       </c>
       <c r="C81" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55.137486343261493</v>
       </c>
       <c r="D81" s="29" t="s">
@@ -6676,11 +7060,11 @@
         <v>45</v>
       </c>
       <c r="H81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J81" s="32">
@@ -6692,8 +7076,9 @@
       <c r="Q81">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R81" s="8">
-        <v>11</v>
+      <c r="R81" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S81" s="9">
         <v>7209</v>
@@ -6702,22 +7087,25 @@
         <v>1.8</v>
       </c>
       <c r="U81">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V81" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y81" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="13" t="s">
         <v>69</v>
       </c>
@@ -6725,7 +7113,7 @@
         <v>38</v>
       </c>
       <c r="C82" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>143.97010322962723</v>
       </c>
       <c r="D82" s="29" t="s">
@@ -6741,11 +7129,11 @@
         <v>45</v>
       </c>
       <c r="H82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J82" s="32">
@@ -6757,8 +7145,9 @@
       <c r="Q82">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R82" s="8">
-        <v>11</v>
+      <c r="R82" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S82" s="9">
         <v>7209</v>
@@ -6767,22 +7156,25 @@
         <v>4.7</v>
       </c>
       <c r="U82">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V82" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y82" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
         <v>70</v>
       </c>
@@ -6790,7 +7182,7 @@
         <v>38</v>
       </c>
       <c r="C83" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>143.97010322962723</v>
       </c>
       <c r="D83" s="29" t="s">
@@ -6806,11 +7198,11 @@
         <v>45</v>
       </c>
       <c r="H83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J83" s="32">
@@ -6822,8 +7214,9 @@
       <c r="Q83">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R83" s="8">
-        <v>11</v>
+      <c r="R83" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S83" s="9">
         <v>7209</v>
@@ -6832,22 +7225,25 @@
         <v>4.7</v>
       </c>
       <c r="U83">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V83" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y83" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
         <v>71</v>
       </c>
@@ -6855,7 +7251,7 @@
         <v>38</v>
       </c>
       <c r="C84" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>183.79162114420495</v>
       </c>
       <c r="D84" s="29" t="s">
@@ -6871,11 +7267,11 @@
         <v>45</v>
       </c>
       <c r="H84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J84" s="32">
@@ -6887,8 +7283,9 @@
       <c r="Q84">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R84" s="8">
-        <v>11</v>
+      <c r="R84" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S84" s="9">
         <v>7209</v>
@@ -6897,22 +7294,25 @@
         <v>6</v>
       </c>
       <c r="U84">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V84" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y84" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
         <v>72</v>
       </c>
@@ -6920,7 +7320,7 @@
         <v>38</v>
       </c>
       <c r="C85" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>183.79162114420495</v>
       </c>
       <c r="D85" s="29" t="s">
@@ -6936,11 +7336,11 @@
         <v>45</v>
       </c>
       <c r="H85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2162.6999999999998</v>
       </c>
       <c r="I85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4751898734177219E-2</v>
       </c>
       <c r="J85" s="32">
@@ -6952,8 +7352,9 @@
       <c r="Q85">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R85" s="8">
-        <v>11</v>
+      <c r="R85" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S85" s="9">
         <v>7209</v>
@@ -6962,22 +7363,25 @@
         <v>6</v>
       </c>
       <c r="U85">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V85" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y85" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
         <v>73</v>
       </c>
@@ -6985,7 +7389,7 @@
         <v>38</v>
       </c>
       <c r="C86" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>52.074292657524744</v>
       </c>
       <c r="D86" s="29" t="s">
@@ -7001,11 +7405,11 @@
         <v>74</v>
       </c>
       <c r="H86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>817.19999999999993</v>
       </c>
       <c r="I86">
-        <f t="shared" ref="I86:I95" si="18">(2724/(790*50)*E86)</f>
+        <f t="shared" ref="I86:I95" si="20">(2724/(790*50)*E86)</f>
         <v>2.0688607594936705E-2</v>
       </c>
       <c r="J86" s="32">
@@ -7014,8 +7418,9 @@
       <c r="Q86">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R86" s="8">
-        <v>11</v>
+      <c r="R86" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S86" s="9">
         <v>2724</v>
@@ -7024,22 +7429,25 @@
         <v>1.7</v>
       </c>
       <c r="U86">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V86" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y86" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
         <v>75</v>
       </c>
@@ -7062,11 +7470,11 @@
         <v>74</v>
       </c>
       <c r="H87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>817.19999999999993</v>
       </c>
       <c r="I87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0688607594936705E-2</v>
       </c>
       <c r="J87" s="32" t="s">
@@ -7075,8 +7483,9 @@
       <c r="Q87">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R87" s="8">
-        <v>11</v>
+      <c r="R87" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S87" s="9">
         <v>2724</v>
@@ -7085,22 +7494,25 @@
         <v>42</v>
       </c>
       <c r="U87">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V87" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X87" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y87" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
         <v>76</v>
       </c>
@@ -7108,7 +7520,7 @@
         <v>38</v>
       </c>
       <c r="C88" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>140.90690954389046</v>
       </c>
       <c r="D88" s="29" t="s">
@@ -7124,11 +7536,11 @@
         <v>74</v>
       </c>
       <c r="H88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>817.19999999999993</v>
       </c>
       <c r="I88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0688607594936705E-2</v>
       </c>
       <c r="J88" s="32">
@@ -7137,8 +7549,9 @@
       <c r="Q88">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R88" s="8">
-        <v>11</v>
+      <c r="R88" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S88" s="9">
         <v>2724</v>
@@ -7147,22 +7560,25 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="U88">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V88" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y88" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
         <v>77</v>
       </c>
@@ -7170,7 +7586,7 @@
         <v>38</v>
       </c>
       <c r="C89" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>140.90690954389046</v>
       </c>
       <c r="D89" s="29" t="s">
@@ -7186,11 +7602,11 @@
         <v>74</v>
       </c>
       <c r="H89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>817.19999999999993</v>
       </c>
       <c r="I89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0688607594936705E-2</v>
       </c>
       <c r="J89" s="32">
@@ -7199,8 +7615,9 @@
       <c r="Q89">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R89" s="8">
-        <v>11</v>
+      <c r="R89" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S89" s="9">
         <v>2724</v>
@@ -7209,22 +7626,25 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="U89">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V89" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y89" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
         <v>78</v>
       </c>
@@ -7232,7 +7652,7 @@
         <v>38</v>
       </c>
       <c r="C90" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>186.85481482994172</v>
       </c>
       <c r="D90" s="29" t="s">
@@ -7248,11 +7668,11 @@
         <v>74</v>
       </c>
       <c r="H90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>817.19999999999993</v>
       </c>
       <c r="I90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0688607594936705E-2</v>
       </c>
       <c r="J90" s="32">
@@ -7261,8 +7681,9 @@
       <c r="Q90">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R90" s="8">
-        <v>11</v>
+      <c r="R90" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S90" s="9">
         <v>2724</v>
@@ -7271,22 +7692,25 @@
         <v>6.1</v>
       </c>
       <c r="U90">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V90" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y90" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
         <v>79</v>
       </c>
@@ -7309,11 +7733,11 @@
         <v>74</v>
       </c>
       <c r="H91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>817.19999999999993</v>
       </c>
       <c r="I91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0688607594936705E-2</v>
       </c>
       <c r="J91" s="32" t="s">
@@ -7322,8 +7746,9 @@
       <c r="Q91">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R91" s="8">
-        <v>11</v>
+      <c r="R91" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S91" s="9">
         <v>2724</v>
@@ -7332,22 +7757,25 @@
         <v>42</v>
       </c>
       <c r="U91">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V91" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X91" t="e">
         <f>T91/U91</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y91" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
         <v>80</v>
       </c>
@@ -7355,7 +7783,7 @@
         <v>38</v>
       </c>
       <c r="C92" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.200680028998242</v>
       </c>
       <c r="D92" s="29" t="s">
@@ -7371,11 +7799,11 @@
         <v>74</v>
       </c>
       <c r="H92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>817.19999999999993</v>
       </c>
       <c r="I92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0688607594936705E-2</v>
       </c>
       <c r="J92" s="32">
@@ -7384,8 +7812,9 @@
       <c r="Q92">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R92" s="8">
-        <v>11</v>
+      <c r="R92" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S92" s="9">
         <v>2724</v>
@@ -7394,22 +7823,25 @@
         <v>1.9</v>
       </c>
       <c r="U92">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V92" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y92" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
         <v>81</v>
       </c>
@@ -7417,7 +7849,7 @@
         <v>38</v>
       </c>
       <c r="C93" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.200680028998242</v>
       </c>
       <c r="D93" s="29" t="s">
@@ -7433,11 +7865,11 @@
         <v>74</v>
       </c>
       <c r="H93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>817.19999999999993</v>
       </c>
       <c r="I93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0688607594936705E-2</v>
       </c>
       <c r="J93" s="32">
@@ -7446,8 +7878,9 @@
       <c r="Q93">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R93" s="8">
-        <v>11</v>
+      <c r="R93" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S93" s="9">
         <v>2724</v>
@@ -7456,22 +7889,25 @@
         <v>1.9</v>
       </c>
       <c r="U93">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V93" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="Y93" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
         <v>82</v>
       </c>
@@ -7479,7 +7915,7 @@
         <v>38</v>
       </c>
       <c r="C94" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>147.03329691536396</v>
       </c>
       <c r="D94" s="29" t="s">
@@ -7495,11 +7931,11 @@
         <v>74</v>
       </c>
       <c r="H94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>817.19999999999993</v>
       </c>
       <c r="I94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0688607594936705E-2</v>
       </c>
       <c r="J94" s="32">
@@ -7508,8 +7944,9 @@
       <c r="Q94">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R94" s="8">
-        <v>11</v>
+      <c r="R94" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S94" s="9">
         <v>2724</v>
@@ -7518,22 +7955,25 @@
         <v>4.8</v>
       </c>
       <c r="U94">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V94" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y94" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
         <v>83</v>
       </c>
@@ -7541,7 +7981,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>147.03329691536396</v>
       </c>
       <c r="D95" s="29" t="s">
@@ -7557,11 +7997,11 @@
         <v>74</v>
       </c>
       <c r="H95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>817.19999999999993</v>
       </c>
       <c r="I95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0688607594936705E-2</v>
       </c>
       <c r="J95" s="33">
@@ -7570,8 +8010,9 @@
       <c r="Q95">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R95" s="8">
-        <v>11</v>
+      <c r="R95" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S95" s="9">
         <v>2724</v>
@@ -7580,22 +8021,25 @@
         <v>4.8</v>
       </c>
       <c r="U95">
-        <f t="shared" si="14"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="V95" s="6">
         <v>9.7936999999999991E-7</v>
       </c>
       <c r="W95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y95" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="21">
         <v>190808</v>
       </c>
@@ -7618,7 +8062,7 @@
         <v>93</v>
       </c>
       <c r="H96">
-        <f t="shared" ref="H96:H106" si="19">J96*E96*S96</f>
+        <f t="shared" ref="H96:H106" si="21">J96*E96*S96</f>
         <v>2946.3999999999996</v>
       </c>
       <c r="I96">
@@ -7637,8 +8081,9 @@
       <c r="Q96">
         <v>1.53</v>
       </c>
-      <c r="R96">
-        <v>20</v>
+      <c r="R96" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S96" s="21">
         <v>232</v>
@@ -7647,11 +8092,14 @@
         <v>2</v>
       </c>
       <c r="U96">
-        <f t="shared" ref="U96:U106" si="20">Q96/E96</f>
-        <v>4.8188976377952759</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="21">
         <v>190905</v>
       </c>
@@ -7674,7 +8122,7 @@
         <v>93</v>
       </c>
       <c r="H97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3530.6</v>
       </c>
       <c r="I97">
@@ -7693,8 +8141,9 @@
       <c r="Q97">
         <v>1.53</v>
       </c>
-      <c r="R97">
-        <v>20</v>
+      <c r="R97" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S97" s="21">
         <v>278</v>
@@ -7703,11 +8152,14 @@
         <v>2</v>
       </c>
       <c r="U97">
-        <f t="shared" si="20"/>
-        <v>4.8188976377952759</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="21">
         <v>190926</v>
       </c>
@@ -7730,11 +8182,11 @@
         <v>93</v>
       </c>
       <c r="H98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3530.6</v>
       </c>
       <c r="I98">
-        <f t="shared" ref="I98:I101" si="21">(278/(120*60)*E98)</f>
+        <f t="shared" ref="I98:I101" si="22">(278/(120*60)*E98)</f>
         <v>1.2259027777777778E-2</v>
       </c>
       <c r="J98" s="22">
@@ -7749,8 +8201,9 @@
       <c r="Q98">
         <v>1.53</v>
       </c>
-      <c r="R98">
-        <v>20</v>
+      <c r="R98" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S98" s="21">
         <v>278</v>
@@ -7759,11 +8212,14 @@
         <v>4</v>
       </c>
       <c r="U98">
-        <f t="shared" si="20"/>
-        <v>4.8188976377952759</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="21">
         <v>190417</v>
       </c>
@@ -7786,11 +8242,11 @@
         <v>93</v>
       </c>
       <c r="H99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3530.6</v>
       </c>
       <c r="I99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.2259027777777778E-2</v>
       </c>
       <c r="J99" s="22">
@@ -7805,8 +8261,9 @@
       <c r="Q99">
         <v>1.53</v>
       </c>
-      <c r="R99">
-        <v>20</v>
+      <c r="R99" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S99" s="21">
         <v>278</v>
@@ -7815,11 +8272,14 @@
         <v>6</v>
       </c>
       <c r="U99">
-        <f t="shared" si="20"/>
-        <v>4.8188976377952759</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="21">
         <v>190506</v>
       </c>
@@ -7842,11 +8302,11 @@
         <v>93</v>
       </c>
       <c r="H100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3530.6</v>
       </c>
       <c r="I100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.2259027777777778E-2</v>
       </c>
       <c r="J100" s="22">
@@ -7861,8 +8321,9 @@
       <c r="Q100">
         <v>1.53</v>
       </c>
-      <c r="R100">
-        <v>20</v>
+      <c r="R100" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S100" s="21">
         <v>278</v>
@@ -7871,11 +8332,14 @@
         <v>6</v>
       </c>
       <c r="U100">
-        <f t="shared" si="20"/>
-        <v>4.8188976377952759</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="21">
         <v>190918</v>
       </c>
@@ -7898,11 +8362,11 @@
         <v>93</v>
       </c>
       <c r="H101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3530.6</v>
       </c>
       <c r="I101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.2259027777777778E-2</v>
       </c>
       <c r="J101" s="22">
@@ -7917,8 +8381,9 @@
       <c r="Q101">
         <v>1.53</v>
       </c>
-      <c r="R101">
-        <v>20</v>
+      <c r="R101" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S101" s="21">
         <v>278</v>
@@ -7927,11 +8392,14 @@
         <v>6</v>
       </c>
       <c r="U101">
-        <f t="shared" si="20"/>
-        <v>4.8188976377952759</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="21">
         <v>190612</v>
       </c>
@@ -7954,7 +8422,7 @@
         <v>93</v>
       </c>
       <c r="H102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10160</v>
       </c>
       <c r="I102">
@@ -7973,8 +8441,9 @@
       <c r="Q102">
         <v>1.53</v>
       </c>
-      <c r="R102">
-        <v>20</v>
+      <c r="R102" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S102" s="21">
         <v>800</v>
@@ -7983,11 +8452,14 @@
         <v>6</v>
       </c>
       <c r="U102">
-        <f t="shared" si="20"/>
-        <v>4.8188976377952759</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="21">
         <v>190701</v>
       </c>
@@ -8010,7 +8482,7 @@
         <v>93</v>
       </c>
       <c r="H103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10160</v>
       </c>
       <c r="I103">
@@ -8029,8 +8501,9 @@
       <c r="Q103">
         <v>1.53</v>
       </c>
-      <c r="R103">
-        <v>20</v>
+      <c r="R103" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S103" s="21">
         <v>800</v>
@@ -8039,11 +8512,14 @@
         <v>6</v>
       </c>
       <c r="U103">
-        <f t="shared" si="20"/>
-        <v>4.8188976377952759</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="21">
         <v>181115</v>
       </c>
@@ -8066,7 +8542,7 @@
         <v>93</v>
       </c>
       <c r="H104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18415</v>
       </c>
       <c r="I104">
@@ -8085,8 +8561,9 @@
       <c r="Q104">
         <v>1.53</v>
       </c>
-      <c r="R104">
-        <v>20</v>
+      <c r="R104" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S104" s="21">
         <v>1450</v>
@@ -8095,11 +8572,14 @@
         <v>6</v>
       </c>
       <c r="U104">
-        <f t="shared" si="20"/>
-        <v>4.8188976377952759</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="21">
         <v>181204</v>
       </c>
@@ -8122,11 +8602,11 @@
         <v>93</v>
       </c>
       <c r="H105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18415</v>
       </c>
       <c r="I105">
-        <f t="shared" ref="I105:I106" si="22">(1450/(120*60)*E105)</f>
+        <f t="shared" ref="I105:I106" si="23">(1450/(120*60)*E105)</f>
         <v>6.3940972222222225E-2</v>
       </c>
       <c r="J105" s="22">
@@ -8141,8 +8621,9 @@
       <c r="Q105">
         <v>1.53</v>
       </c>
-      <c r="R105">
-        <v>20</v>
+      <c r="R105" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S105" s="21">
         <v>1450</v>
@@ -8151,11 +8632,14 @@
         <v>6</v>
       </c>
       <c r="U105">
-        <f t="shared" si="20"/>
-        <v>4.8188976377952759</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="21">
         <v>190131</v>
       </c>
@@ -8178,11 +8662,11 @@
         <v>93</v>
       </c>
       <c r="H106">
-        <f t="shared" si="19"/>
+        <f>J106*E106*S106</f>
         <v>17724.4375</v>
       </c>
       <c r="I106">
-        <f t="shared" si="22"/>
+        <f>(1450/(120*60)*E106)</f>
         <v>6.3940972222222225E-2</v>
       </c>
       <c r="J106" s="22">
@@ -8197,8 +8681,9 @@
       <c r="Q106">
         <v>1.53</v>
       </c>
-      <c r="R106">
-        <v>20</v>
+      <c r="R106" s="4">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
       </c>
       <c r="S106" s="21">
         <v>1450</v>
@@ -8207,8 +8692,1091 @@
         <v>6</v>
       </c>
       <c r="U106">
-        <f t="shared" si="20"/>
-        <v>4.8188976377952759</v>
+        <f t="shared" si="16"/>
+        <v>6.2992125984251968E-3</v>
+      </c>
+      <c r="Y106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B107" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="41">
+        <v>72.34</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E107" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H107">
+        <f>J107*E107*S107</f>
+        <v>2552.7600000000002</v>
+      </c>
+      <c r="I107">
+        <f>(S107/(199*25)*E107)</f>
+        <v>0.12827939698492463</v>
+      </c>
+      <c r="J107" s="30">
+        <v>4</v>
+      </c>
+      <c r="N107">
+        <v>2.7557319223985889E-3</v>
+      </c>
+      <c r="P107" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q107">
+        <v>1.03</v>
+      </c>
+      <c r="R107" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S107">
+        <v>1013</v>
+      </c>
+      <c r="T107">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y107">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>1.2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="41">
+        <v>185.67</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E108" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H108">
+        <f t="shared" ref="H107:H124" si="24">J108*E108*S108</f>
+        <v>2552.7600000000002</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ref="I108:I124" si="25">(S108/(199*25)*E108)</f>
+        <v>0.12827939698492463</v>
+      </c>
+      <c r="J108" s="30">
+        <v>4</v>
+      </c>
+      <c r="N108">
+        <v>1.7709419418821129E-3</v>
+      </c>
+      <c r="P108" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q108">
+        <v>1.03</v>
+      </c>
+      <c r="R108" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S108">
+        <v>1013</v>
+      </c>
+      <c r="T108">
+        <v>2.86</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y108">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>1.3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" s="41">
+        <v>256.64999999999998</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="24"/>
+        <v>2552.7600000000002</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="25"/>
+        <v>0.12827939698492463</v>
+      </c>
+      <c r="J109" s="30">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>1.385430296709334E-3</v>
+      </c>
+      <c r="P109" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q109">
+        <v>1.03</v>
+      </c>
+      <c r="R109" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S109">
+        <v>1013</v>
+      </c>
+      <c r="T109">
+        <v>3.9699999999999998</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y109">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>1.4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="41">
+        <v>414.25</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="24"/>
+        <v>2552.7600000000002</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="25"/>
+        <v>0.12827939698492463</v>
+      </c>
+      <c r="J110" s="30">
+        <v>4</v>
+      </c>
+      <c r="N110">
+        <v>1.836714367001664E-3</v>
+      </c>
+      <c r="P110" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q110">
+        <v>1.03</v>
+      </c>
+      <c r="R110" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S110">
+        <v>1013</v>
+      </c>
+      <c r="T110">
+        <v>6.419999999999999</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y110">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>1.5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="41">
+        <v>497.03</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="24"/>
+        <v>2552.7600000000002</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="25"/>
+        <v>0.12827939698492463</v>
+      </c>
+      <c r="J111" s="30">
+        <v>4</v>
+      </c>
+      <c r="N111">
+        <v>1.8500018500018501E-3</v>
+      </c>
+      <c r="P111" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q111">
+        <v>1.03</v>
+      </c>
+      <c r="R111" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S111">
+        <v>1013</v>
+      </c>
+      <c r="T111">
+        <v>7.7</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y111">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>1.6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="41">
+        <v>586.9</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="24"/>
+        <v>2552.7600000000002</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="25"/>
+        <v>0.12827939698492463</v>
+      </c>
+      <c r="J112" s="30">
+        <v>4</v>
+      </c>
+      <c r="N112">
+        <v>2.2374823743849534E-3</v>
+      </c>
+      <c r="P112" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q112">
+        <v>1.03</v>
+      </c>
+      <c r="R112" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S112">
+        <v>1013</v>
+      </c>
+      <c r="T112">
+        <v>9.09</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y112">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2.1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="41">
+        <v>71.02</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E113" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="24"/>
+        <v>5105.5200000000004</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="25"/>
+        <v>0.25655879396984926</v>
+      </c>
+      <c r="J113" s="30">
+        <v>4</v>
+      </c>
+      <c r="N113">
+        <v>6.4390342168119943E-3</v>
+      </c>
+      <c r="P113" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q113">
+        <v>1.03</v>
+      </c>
+      <c r="R113" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S113">
+        <v>2026</v>
+      </c>
+      <c r="T113">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y113">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B114" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="41">
+        <v>184.54</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E114" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="24"/>
+        <v>5105.5200000000004</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="25"/>
+        <v>0.25655879396984926</v>
+      </c>
+      <c r="J114" s="30">
+        <v>4</v>
+      </c>
+      <c r="N114">
+        <v>4.6487225974405459E-3</v>
+      </c>
+      <c r="P114" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q114">
+        <v>1.03</v>
+      </c>
+      <c r="R114" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S114">
+        <v>2026</v>
+      </c>
+      <c r="T114">
+        <v>2.86</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y114">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B115" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115" s="41">
+        <v>283.29000000000002</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E115" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="24"/>
+        <v>5105.5200000000004</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="25"/>
+        <v>0.25655879396984926</v>
+      </c>
+      <c r="J115" s="30">
+        <v>4</v>
+      </c>
+      <c r="N115">
+        <v>3.407121858146915E-3</v>
+      </c>
+      <c r="P115" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q115">
+        <v>1.03</v>
+      </c>
+      <c r="R115" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S115">
+        <v>2026</v>
+      </c>
+      <c r="T115">
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y115">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2.4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="41">
+        <v>350.84</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E116" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="24"/>
+        <v>5105.5200000000004</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="25"/>
+        <v>0.25655879396984926</v>
+      </c>
+      <c r="J116" s="30">
+        <v>4</v>
+      </c>
+      <c r="N116">
+        <v>4.0662563682821512E-3</v>
+      </c>
+      <c r="P116" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q116">
+        <v>1.03</v>
+      </c>
+      <c r="R116" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S116">
+        <v>2026</v>
+      </c>
+      <c r="T116">
+        <v>5.43</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y116">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2.5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" s="41">
+        <v>440.8</v>
+      </c>
+      <c r="D117" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E117" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="24"/>
+        <v>5105.5200000000004</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="25"/>
+        <v>0.25655879396984926</v>
+      </c>
+      <c r="J117" s="30">
+        <v>4</v>
+      </c>
+      <c r="N117">
+        <v>1.8307404024013752E-3</v>
+      </c>
+      <c r="P117" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q117">
+        <v>1.03</v>
+      </c>
+      <c r="R117" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S117">
+        <v>2026</v>
+      </c>
+      <c r="T117">
+        <v>6.83</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y117">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2.6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="41">
+        <v>657.27</v>
+      </c>
+      <c r="D118" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E118" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="24"/>
+        <v>5105.5200000000004</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="25"/>
+        <v>0.25655879396984926</v>
+      </c>
+      <c r="J118" s="30">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>2.0484398895226222E-3</v>
+      </c>
+      <c r="P118" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q118">
+        <v>1.03</v>
+      </c>
+      <c r="R118" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S118">
+        <v>2026</v>
+      </c>
+      <c r="T118">
+        <v>10.18</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y118">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>3.1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>148</v>
+      </c>
+      <c r="C119" s="41">
+        <v>115.88</v>
+      </c>
+      <c r="D119" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E119" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="24"/>
+        <v>10213.56</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="25"/>
+        <v>0.5132442211055277</v>
+      </c>
+      <c r="J119" s="30">
+        <v>4</v>
+      </c>
+      <c r="N119">
+        <v>3.7579956884736522E-4</v>
+      </c>
+      <c r="P119" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q119">
+        <v>1.03</v>
+      </c>
+      <c r="R119" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S119">
+        <v>4053</v>
+      </c>
+      <c r="T119">
+        <v>1.79</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y119">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>3.2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" s="41">
+        <v>152.07</v>
+      </c>
+      <c r="D120" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E120" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="24"/>
+        <v>10213.56</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="25"/>
+        <v>0.5132442211055277</v>
+      </c>
+      <c r="J120" s="30">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>1.3133701076963485E-3</v>
+      </c>
+      <c r="P120" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q120">
+        <v>1.03</v>
+      </c>
+      <c r="R120" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S120">
+        <v>4053</v>
+      </c>
+      <c r="T120">
+        <v>2.35</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y120">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>3.3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" s="41">
+        <v>235.98</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E121" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="24"/>
+        <v>10213.56</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="25"/>
+        <v>0.5132442211055277</v>
+      </c>
+      <c r="J121" s="30">
+        <v>4</v>
+      </c>
+      <c r="N121">
+        <v>3.6859245382837462E-4</v>
+      </c>
+      <c r="P121" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q121">
+        <v>1.03</v>
+      </c>
+      <c r="R121" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S121">
+        <v>4053</v>
+      </c>
+      <c r="T121">
+        <v>3.65</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y121">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>3.4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>148</v>
+      </c>
+      <c r="C122" s="41">
+        <v>363.78</v>
+      </c>
+      <c r="D122" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E122" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G122" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="24"/>
+        <v>10213.56</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="25"/>
+        <v>0.5132442211055277</v>
+      </c>
+      <c r="J122" s="30">
+        <v>4</v>
+      </c>
+      <c r="N122">
+        <v>3.0221808394297045E-4</v>
+      </c>
+      <c r="P122" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q122">
+        <v>1.03</v>
+      </c>
+      <c r="R122" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S122">
+        <v>4053</v>
+      </c>
+      <c r="T122">
+        <v>5.63</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y122">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>3.5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="41">
+        <v>562.41999999999996</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E123" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="24"/>
+        <v>10213.56</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="25"/>
+        <v>0.5132442211055277</v>
+      </c>
+      <c r="J123" s="30">
+        <v>4</v>
+      </c>
+      <c r="N123">
+        <v>2.5895069905785553E-4</v>
+      </c>
+      <c r="P123" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q123">
+        <v>1.03</v>
+      </c>
+      <c r="R123" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S123">
+        <v>4053</v>
+      </c>
+      <c r="T123">
+        <v>8.7099999999999991</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y123">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>3.6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" s="41">
+        <v>640.82000000000005</v>
+      </c>
+      <c r="D124" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E124" s="48">
+        <v>0.63</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="24"/>
+        <v>10213.56</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="25"/>
+        <v>0.5132442211055277</v>
+      </c>
+      <c r="J124" s="30">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>1.7949866740189321E-4</v>
+      </c>
+      <c r="P124" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q124">
+        <v>1.03</v>
+      </c>
+      <c r="R124" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="S124">
+        <v>4053</v>
+      </c>
+      <c r="T124">
+        <v>9.92</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="16"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="Y124">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -10400,4 +11968,870 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD4BE57-0D01-4633-BEA0-A96D0D163DF2}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <f>B2/5</f>
+        <v>15.6</v>
+      </c>
+      <c r="D2">
+        <v>1013</v>
+      </c>
+      <c r="E2" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F2" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G2" s="46">
+        <v>1.12E-2</v>
+      </c>
+      <c r="H2" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J2" s="44">
+        <v>600</v>
+      </c>
+      <c r="K2">
+        <f>B2/(F2*G2*H2*I2*J2)</f>
+        <v>2.7557319223985889E-3</v>
+      </c>
+      <c r="L2" s="47">
+        <f>K2</f>
+        <v>2.7557319223985889E-3</v>
+      </c>
+      <c r="N2">
+        <f>G2*100</f>
+        <v>1.1199999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.2</v>
+      </c>
+      <c r="B3">
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C19" si="0">B3/5</f>
+        <v>25.6</v>
+      </c>
+      <c r="D3">
+        <v>1013</v>
+      </c>
+      <c r="E3" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F3" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G3" s="46">
+        <v>2.86E-2</v>
+      </c>
+      <c r="H3" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I3" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J3" s="44">
+        <v>600</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K19" si="1">B3/(F3*G3*H3*I3*J3)</f>
+        <v>1.7709419418821129E-3</v>
+      </c>
+      <c r="L3" s="47">
+        <f t="shared" ref="L3:L19" si="2">K3</f>
+        <v>1.7709419418821129E-3</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N19" si="3">G3*100</f>
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4">
+        <v>139</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>27.8</v>
+      </c>
+      <c r="D4">
+        <v>1013</v>
+      </c>
+      <c r="E4" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F4" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G4" s="46">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="H4" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I4" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J4" s="44">
+        <v>600</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.385430296709334E-3</v>
+      </c>
+      <c r="L4" s="47">
+        <f t="shared" si="2"/>
+        <v>1.385430296709334E-3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>3.9699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.4</v>
+      </c>
+      <c r="B5">
+        <v>298</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>59.6</v>
+      </c>
+      <c r="D5">
+        <v>1013</v>
+      </c>
+      <c r="E5" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F5" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G5" s="46">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="H5" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I5" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J5" s="44">
+        <v>600</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1.836714367001664E-3</v>
+      </c>
+      <c r="L5" s="47">
+        <f t="shared" si="2"/>
+        <v>1.836714367001664E-3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>6.419999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>360</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>1013</v>
+      </c>
+      <c r="E6" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F6" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G6" s="46">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H6" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J6" s="44">
+        <v>600</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1.8500018500018501E-3</v>
+      </c>
+      <c r="L6" s="47">
+        <f t="shared" si="2"/>
+        <v>1.8500018500018501E-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>514</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>102.8</v>
+      </c>
+      <c r="D7">
+        <v>1013</v>
+      </c>
+      <c r="E7" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F7" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G7" s="46">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="H7" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I7" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J7" s="44">
+        <v>600</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>2.2374823743849534E-3</v>
+      </c>
+      <c r="L7" s="47">
+        <f t="shared" si="2"/>
+        <v>2.2374823743849534E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.1</v>
+      </c>
+      <c r="B8">
+        <v>179</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D8">
+        <v>2026</v>
+      </c>
+      <c r="E8" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F8" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G8" s="46">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H8" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J8" s="44">
+        <v>600</v>
+      </c>
+      <c r="K8">
+        <f>B8/(F8*G8*H8*I8*J8)</f>
+        <v>6.4390342168119943E-3</v>
+      </c>
+      <c r="L8" s="47">
+        <f t="shared" si="2"/>
+        <v>6.4390342168119943E-3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9">
+        <v>336</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>67.2</v>
+      </c>
+      <c r="D9">
+        <v>2026</v>
+      </c>
+      <c r="E9" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F9" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G9" s="46">
+        <v>2.86E-2</v>
+      </c>
+      <c r="H9" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="44">
+        <v>600</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>4.6487225974405459E-3</v>
+      </c>
+      <c r="L9" s="47">
+        <f t="shared" si="2"/>
+        <v>4.6487225974405459E-3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10">
+        <v>378</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="D10">
+        <v>2026</v>
+      </c>
+      <c r="E10" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F10" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G10" s="46">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="H10" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J10" s="44">
+        <v>600</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3.407121858146915E-3</v>
+      </c>
+      <c r="L10" s="47">
+        <f t="shared" si="2"/>
+        <v>3.407121858146915E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>4.3900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.4</v>
+      </c>
+      <c r="B11">
+        <v>558</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>111.6</v>
+      </c>
+      <c r="D11">
+        <v>2026</v>
+      </c>
+      <c r="E11" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F11" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G11" s="46">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="H11" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I11" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J11" s="44">
+        <v>600</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>4.0662563682821512E-3</v>
+      </c>
+      <c r="L11" s="47">
+        <f t="shared" si="2"/>
+        <v>4.0662563682821512E-3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.5</v>
+      </c>
+      <c r="B12">
+        <v>316</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>63.2</v>
+      </c>
+      <c r="D12">
+        <v>2026</v>
+      </c>
+      <c r="E12" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F12" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G12" s="46">
+        <v>6.83E-2</v>
+      </c>
+      <c r="H12" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J12" s="44">
+        <v>600</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>1.8307404024013752E-3</v>
+      </c>
+      <c r="L12" s="47">
+        <f t="shared" si="2"/>
+        <v>1.8307404024013752E-3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.6</v>
+      </c>
+      <c r="B13">
+        <v>527</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>105.4</v>
+      </c>
+      <c r="D13">
+        <v>2026</v>
+      </c>
+      <c r="E13" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F13" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.1018</v>
+      </c>
+      <c r="H13" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J13" s="44">
+        <v>600</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>2.0484398895226222E-3</v>
+      </c>
+      <c r="L13" s="47">
+        <f t="shared" si="2"/>
+        <v>2.0484398895226222E-3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.1</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="D14">
+        <v>4053</v>
+      </c>
+      <c r="E14" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F14" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G14" s="46">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="H14" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I14" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J14" s="44">
+        <v>600</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>3.7579956884736522E-4</v>
+      </c>
+      <c r="L14" s="47">
+        <f t="shared" si="2"/>
+        <v>3.7579956884736522E-4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3.2</v>
+      </c>
+      <c r="B15">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>15.6</v>
+      </c>
+      <c r="D15">
+        <v>4053</v>
+      </c>
+      <c r="E15" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F15" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G15" s="46">
+        <v>2.35E-2</v>
+      </c>
+      <c r="H15" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I15" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J15" s="44">
+        <v>600</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1.3133701076963485E-3</v>
+      </c>
+      <c r="L15" s="47">
+        <f t="shared" si="2"/>
+        <v>1.3133701076963485E-3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3.3</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="D16">
+        <v>4053</v>
+      </c>
+      <c r="E16" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F16" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G16" s="46">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="H16" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I16" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J16" s="44">
+        <v>600</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>3.6859245382837462E-4</v>
+      </c>
+      <c r="L16" s="47">
+        <f t="shared" si="2"/>
+        <v>3.6859245382837462E-4</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3.4</v>
+      </c>
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="D17">
+        <v>4053</v>
+      </c>
+      <c r="E17" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F17" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G17" s="46">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="H17" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J17" s="44">
+        <v>600</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>3.0221808394297045E-4</v>
+      </c>
+      <c r="L17" s="47">
+        <f t="shared" si="2"/>
+        <v>3.0221808394297045E-4</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3.5</v>
+      </c>
+      <c r="B18">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>11.4</v>
+      </c>
+      <c r="D18">
+        <v>4053</v>
+      </c>
+      <c r="E18" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F18" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G18" s="46">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="H18" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I18" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J18" s="44">
+        <v>600</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>2.5895069905785553E-4</v>
+      </c>
+      <c r="L18" s="47">
+        <f t="shared" si="2"/>
+        <v>2.5895069905785553E-4</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>8.7099999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3.6</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>4053</v>
+      </c>
+      <c r="E19" s="44">
+        <v>2106000</v>
+      </c>
+      <c r="F19" s="44">
+        <v>17550000</v>
+      </c>
+      <c r="G19" s="46">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="H19" s="46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="J19" s="44">
+        <v>600</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1.7949866740189321E-4</v>
+      </c>
+      <c r="L19" s="47">
+        <f t="shared" si="2"/>
+        <v>1.7949866740189321E-4</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H20" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>